--- a/team_specific_matrix/Mount St. Mary's_A.xlsx
+++ b/team_specific_matrix/Mount St. Mary's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1923076923076923</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5625</v>
+        <v>0.5674603174603174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03365384615384615</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1490384615384615</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01724137931034483</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C3">
-        <v>0.008620689655172414</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03448275862068965</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7758620689655172</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1637931034482759</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4090909090909091</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02298850574712644</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01724137931034483</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08620689655172414</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2011494252873563</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03448275862068965</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R6">
-        <v>0.08045977011494253</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="S6">
-        <v>0.3908045977011494</v>
+        <v>0.3943661971830986</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07975460122699386</v>
+        <v>0.078125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006134969325153374</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08588957055214724</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1411042944785276</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01840490797546012</v>
+        <v>0.015625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1717791411042945</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.0736196319018405</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.4233128834355828</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07932011331444759</v>
+        <v>0.06997742663656885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0056657223796034</v>
+        <v>0.004514672686230248</v>
       </c>
       <c r="E8">
-        <v>0.0056657223796034</v>
+        <v>0.004514672686230248</v>
       </c>
       <c r="F8">
-        <v>0.056657223796034</v>
+        <v>0.05417607223476298</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09348441926345609</v>
+        <v>0.0835214446952596</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0198300283286119</v>
+        <v>0.02483069977426636</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2096317280453258</v>
+        <v>0.218961625282167</v>
       </c>
       <c r="R8">
-        <v>0.09631728045325778</v>
+        <v>0.08803611738148984</v>
       </c>
       <c r="S8">
-        <v>0.43342776203966</v>
+        <v>0.4514672686230248</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07092198581560284</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007092198581560284</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07801418439716312</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1276595744680851</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2198581560283688</v>
+        <v>0.217877094972067</v>
       </c>
       <c r="R9">
-        <v>0.07092198581560284</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="S9">
-        <v>0.425531914893617</v>
+        <v>0.446927374301676</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1056137012369172</v>
+        <v>0.10625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01617507136060894</v>
+        <v>0.01640625</v>
       </c>
       <c r="E10">
-        <v>0.0009514747859181732</v>
+        <v>0.00078125</v>
       </c>
       <c r="F10">
-        <v>0.06184586108468126</v>
+        <v>0.06328125</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1141769743101808</v>
+        <v>0.12109375</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008563273073263558</v>
+        <v>0.00703125</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.247383444338725</v>
+        <v>0.24765625</v>
       </c>
       <c r="R10">
-        <v>0.07231208372978117</v>
+        <v>0.0671875</v>
       </c>
       <c r="S10">
-        <v>0.3729781160799239</v>
+        <v>0.3703125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1298701298701299</v>
+        <v>0.1298245614035088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08225108225108226</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="K11">
-        <v>0.1688311688311688</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L11">
-        <v>0.6060606060606061</v>
+        <v>0.5929824561403508</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01298701298701299</v>
+        <v>0.01403508771929825</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7905405405405406</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1216216216216216</v>
+        <v>0.1452513966480447</v>
       </c>
       <c r="K12">
-        <v>0.01351351351351351</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="L12">
-        <v>0.04054054054054054</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03378378378378379</v>
+        <v>0.02793296089385475</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02395209580838323</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1197604790419162</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="I15">
-        <v>0.0718562874251497</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="J15">
-        <v>0.4730538922155689</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="K15">
-        <v>0.04790419161676647</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005988023952095809</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03592814371257485</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2215568862275449</v>
+        <v>0.2227722772277228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01526717557251908</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2061068702290076</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="I16">
-        <v>0.09923664122137404</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="J16">
-        <v>0.4274809160305343</v>
+        <v>0.4276729559748428</v>
       </c>
       <c r="K16">
-        <v>0.07633587786259542</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05343511450381679</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1221374045801527</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01435406698564593</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1818181818181818</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="I17">
-        <v>0.08851674641148326</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="J17">
-        <v>0.4186602870813397</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="K17">
-        <v>0.1100478468899522</v>
+        <v>0.1087378640776699</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01196172248803828</v>
+        <v>0.01359223300970874</v>
       </c>
       <c r="N17">
-        <v>0.002392344497607655</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="O17">
-        <v>0.0645933014354067</v>
+        <v>0.06407766990291262</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1076555023923445</v>
+        <v>0.112621359223301</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0273972602739726</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1164383561643836</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="I18">
-        <v>0.06164383561643835</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.4941860465116279</v>
       </c>
       <c r="K18">
-        <v>0.1095890410958904</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00684931506849315</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0821917808219178</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0958904109589041</v>
+        <v>0.09883720930232558</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01298701298701299</v>
+        <v>0.01443464314354451</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2187812187812188</v>
+        <v>0.2197273456295108</v>
       </c>
       <c r="I19">
-        <v>0.07292707292707293</v>
+        <v>0.07778668805132317</v>
       </c>
       <c r="J19">
-        <v>0.3886113886113886</v>
+        <v>0.3809141940657578</v>
       </c>
       <c r="K19">
-        <v>0.1048951048951049</v>
+        <v>0.1002405773857257</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02397602397602398</v>
+        <v>0.02085004009623095</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06593406593406594</v>
+        <v>0.06655974338412189</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1118881118881119</v>
+        <v>0.1194867682437851</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mount St. Mary's_A.xlsx
+++ b/team_specific_matrix/Mount St. Mary's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1904761904761905</v>
+        <v>0.1902985074626866</v>
       </c>
       <c r="C2">
-        <v>0.5674603174603174</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03174603174603174</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1507936507936508</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05952380952380952</v>
+        <v>0.06343283582089553</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C3">
-        <v>0.007042253521126761</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04225352112676056</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7676056338028169</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1690140845070423</v>
+        <v>0.1589403973509934</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4074074074074074</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02816901408450704</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0187793427230047</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07042253521126761</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2206572769953052</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02816901408450704</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1596244131455399</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0.07981220657276995</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3943661971830986</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.078125</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005208333333333333</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1510416666666667</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015625</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.4183673469387755</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06997742663656885</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004514672686230248</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="E8">
-        <v>0.004514672686230248</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="F8">
-        <v>0.05417607223476298</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0835214446952596</v>
+        <v>0.08879492600422834</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02483069977426636</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.218961625282167</v>
+        <v>0.2198731501057082</v>
       </c>
       <c r="R8">
-        <v>0.08803611738148984</v>
+        <v>0.0824524312896406</v>
       </c>
       <c r="S8">
-        <v>0.4514672686230248</v>
+        <v>0.4503171247357294</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07262569832402235</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00558659217877095</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07262569832402235</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.106145251396648</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.217877094972067</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="R9">
-        <v>0.0782122905027933</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="S9">
-        <v>0.446927374301676</v>
+        <v>0.4690721649484536</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.10625</v>
+        <v>0.1058394160583942</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01640625</v>
+        <v>0.01532846715328467</v>
       </c>
       <c r="E10">
-        <v>0.00078125</v>
+        <v>0.00072992700729927</v>
       </c>
       <c r="F10">
-        <v>0.06328125</v>
+        <v>0.06715328467153285</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.12109375</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00703125</v>
+        <v>0.006569343065693431</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.24765625</v>
+        <v>0.2503649635036496</v>
       </c>
       <c r="R10">
-        <v>0.0671875</v>
+        <v>0.06861313868613139</v>
       </c>
       <c r="S10">
-        <v>0.3703125</v>
+        <v>0.3686131386861314</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1298245614035088</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08421052631578947</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="K11">
-        <v>0.1789473684210526</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L11">
-        <v>0.5929824561403508</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01403508771929825</v>
+        <v>0.01374570446735395</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.770949720670391</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1452513966480447</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="K12">
-        <v>0.0111731843575419</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="L12">
-        <v>0.0446927374301676</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02793296089385475</v>
+        <v>0.02688172043010753</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7352941176470589</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02475247524752475</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1386138613861386</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I15">
-        <v>0.06930693069306931</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="J15">
-        <v>0.4455445544554456</v>
+        <v>0.4562211981566821</v>
       </c>
       <c r="K15">
-        <v>0.06435643564356436</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004950495049504951</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0297029702970297</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2227722772277228</v>
+        <v>0.2165898617511521</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01257861635220126</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1949685534591195</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.1006289308176101</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.4276729559748428</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="K16">
-        <v>0.0880503144654088</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06289308176100629</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1132075471698113</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01941747572815534</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1844660194174757</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="I17">
-        <v>0.08737864077669903</v>
+        <v>0.08876811594202899</v>
       </c>
       <c r="J17">
-        <v>0.4077669902912621</v>
+        <v>0.4184782608695652</v>
       </c>
       <c r="K17">
-        <v>0.1087378640776699</v>
+        <v>0.1050724637681159</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01359223300970874</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N17">
-        <v>0.001941747572815534</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="O17">
-        <v>0.06407766990291262</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.112621359223301</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02325581395348837</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1279069767441861</v>
+        <v>0.1325966850828729</v>
       </c>
       <c r="I18">
-        <v>0.06395348837209303</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="J18">
-        <v>0.4941860465116279</v>
+        <v>0.4861878453038674</v>
       </c>
       <c r="K18">
-        <v>0.1104651162790698</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005813953488372093</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0755813953488372</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09883720930232558</v>
+        <v>0.09944751381215469</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01443464314354451</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197273456295108</v>
+        <v>0.2197140707298721</v>
       </c>
       <c r="I19">
-        <v>0.07778668805132317</v>
+        <v>0.07825432656132431</v>
       </c>
       <c r="J19">
-        <v>0.3809141940657578</v>
+        <v>0.3844996237772761</v>
       </c>
       <c r="K19">
-        <v>0.1002405773857257</v>
+        <v>0.09631301730624529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02085004009623095</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06655974338412189</v>
+        <v>0.06847253574115876</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1194867682437851</v>
+        <v>0.1188863807373965</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mount St. Mary's_A.xlsx
+++ b/team_specific_matrix/Mount St. Mary's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1902985074626866</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C2">
-        <v>0.5671641791044776</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02985074626865672</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1492537313432836</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06343283582089553</v>
+        <v>0.06159420289855073</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01324503311258278</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.006622516556291391</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03973509933774835</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7814569536423841</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1589403973509934</v>
+        <v>0.169811320754717</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3928571428571428</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03846153846153846</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0170940170940171</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.217948717948718</v>
+        <v>0.2199170124481328</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02564102564102564</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.1576763485477178</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="S6">
-        <v>0.3931623931623932</v>
+        <v>0.3858921161825726</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07653061224489796</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00510204081632653</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08673469387755102</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1479591836734694</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01530612244897959</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1683673469387755</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="R7">
-        <v>0.08163265306122448</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="S7">
-        <v>0.4183673469387755</v>
+        <v>0.4187192118226601</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06553911205073996</v>
+        <v>0.06625258799171843</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006342494714587738</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="E8">
-        <v>0.004228329809725159</v>
+        <v>0.004140786749482402</v>
       </c>
       <c r="F8">
-        <v>0.05919661733615222</v>
+        <v>0.06004140786749482</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08879492600422834</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02325581395348837</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2198731501057082</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R8">
-        <v>0.0824524312896406</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="S8">
-        <v>0.4503171247357294</v>
+        <v>0.4492753623188406</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07216494845360824</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005154639175257732</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07216494845360824</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09793814432989691</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.211340206185567</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="R9">
-        <v>0.07216494845360824</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="S9">
-        <v>0.4690721649484536</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1058394160583942</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01532846715328467</v>
+        <v>0.01617440225035162</v>
       </c>
       <c r="E10">
-        <v>0.00072992700729927</v>
+        <v>0.0007032348804500703</v>
       </c>
       <c r="F10">
-        <v>0.06715328467153285</v>
+        <v>0.06680731364275667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1167883211678832</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006569343065693431</v>
+        <v>0.007735583684950774</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2503649635036496</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="R10">
-        <v>0.06861313868613139</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="S10">
-        <v>0.3686131386861314</v>
+        <v>0.3663853727144866</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1305841924398626</v>
+        <v>0.1262458471760797</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08247422680412371</v>
+        <v>0.08970099667774087</v>
       </c>
       <c r="K11">
-        <v>0.1752577319587629</v>
+        <v>0.1760797342192691</v>
       </c>
       <c r="L11">
-        <v>0.5979381443298969</v>
+        <v>0.5946843853820598</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01374570446735395</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7634408602150538</v>
+        <v>0.7591623036649214</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1505376344086022</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="K12">
-        <v>0.01075268817204301</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.04838709677419355</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02688172043010753</v>
+        <v>0.02617801047120419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02304147465437788</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1290322580645161</v>
+        <v>0.1300448430493273</v>
       </c>
       <c r="I15">
-        <v>0.06912442396313365</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.4562211981566821</v>
+        <v>0.4484304932735426</v>
       </c>
       <c r="K15">
-        <v>0.06451612903225806</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004608294930875576</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03686635944700461</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2165898617511521</v>
+        <v>0.2197309417040359</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01176470588235294</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J16">
-        <v>0.4235294117647059</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="K16">
-        <v>0.08235294117647059</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07058823529411765</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1117647058823529</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01811594202898551</v>
+        <v>0.01903114186851211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1847826086956522</v>
+        <v>0.1782006920415225</v>
       </c>
       <c r="I17">
-        <v>0.08876811594202899</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="J17">
-        <v>0.4184782608695652</v>
+        <v>0.4204152249134948</v>
       </c>
       <c r="K17">
-        <v>0.1050724637681159</v>
+        <v>0.1089965397923875</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01449275362318841</v>
+        <v>0.01557093425605536</v>
       </c>
       <c r="N17">
-        <v>0.001811594202898551</v>
+        <v>0.001730103806228374</v>
       </c>
       <c r="O17">
-        <v>0.05978260869565218</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108695652173913</v>
+        <v>0.1072664359861592</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02209944751381215</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1325966850828729</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="I18">
-        <v>0.0718232044198895</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="J18">
-        <v>0.4861878453038674</v>
+        <v>0.4759358288770054</v>
       </c>
       <c r="K18">
-        <v>0.1049723756906077</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005524861878453038</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07734806629834254</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09944751381215469</v>
+        <v>0.1016042780748663</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01354401805869074</v>
+        <v>0.01314828341855369</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197140707298721</v>
+        <v>0.2176771365960555</v>
       </c>
       <c r="I19">
-        <v>0.07825432656132431</v>
+        <v>0.07815924032140248</v>
       </c>
       <c r="J19">
-        <v>0.3844996237772761</v>
+        <v>0.3886048210372535</v>
       </c>
       <c r="K19">
-        <v>0.09631301730624529</v>
+        <v>0.09495982468955443</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02031602708803612</v>
+        <v>0.02337472607742878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06847253574115876</v>
+        <v>0.06647187728268809</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1188863807373965</v>
+        <v>0.1176040905770635</v>
       </c>
     </row>
   </sheetData>
